--- a/WIP/Documents/Function check list.xlsx
+++ b/WIP/Documents/Function check list.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Project\WingS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1_WingS\201609JS01\WIP\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="73">
   <si>
     <t>Return Time</t>
   </si>
@@ -239,6 +239,9 @@
   </si>
   <si>
     <t>Change report's status</t>
+  </si>
+  <si>
+    <t>Report Other User</t>
   </si>
 </sst>
 </file>
@@ -249,7 +252,7 @@
     <numFmt numFmtId="164" formatCode="[$-409]h:mm\ AM/PM;@"/>
     <numFmt numFmtId="165" formatCode="m/d/yy;@"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -317,6 +320,11 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1" tint="0.249977111117893"/>
+      <name val="Times New Roman"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -496,7 +504,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -517,8 +525,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
@@ -566,32 +572,17 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="10">
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1" tint="0.249977111117893"/>
-        <name val="Times New Roman"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0"/>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -792,13 +783,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
-          <color indexed="23"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <left style="thin">
           <color indexed="44"/>
         </left>
@@ -810,6 +794,34 @@
         </top>
         <bottom style="thin">
           <color indexed="44"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1" tint="0.249977111117893"/>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="23"/>
         </bottom>
       </border>
     </dxf>
@@ -929,14 +941,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B3:F55" totalsRowShown="0" headerRowDxfId="9" dataDxfId="0" headerRowBorderDxfId="7" tableBorderDxfId="8" totalsRowBorderDxfId="6">
-  <autoFilter ref="B3:F55"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B3:F56" totalsRowShown="0" headerRowDxfId="9" dataDxfId="7" headerRowBorderDxfId="8" tableBorderDxfId="6" totalsRowBorderDxfId="5">
+  <autoFilter ref="B3:F56"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="No" dataDxfId="5"/>
-    <tableColumn id="2" name="Group" dataDxfId="4"/>
-    <tableColumn id="3" name="Function" dataDxfId="3"/>
-    <tableColumn id="4" name="Status" dataDxfId="2"/>
-    <tableColumn id="5" name="Return Time" dataDxfId="1"/>
+    <tableColumn id="1" name="No" dataDxfId="4"/>
+    <tableColumn id="2" name="Group" dataDxfId="3"/>
+    <tableColumn id="3" name="Function" dataDxfId="2"/>
+    <tableColumn id="4" name="Status" dataDxfId="1"/>
+    <tableColumn id="5" name="Return Time" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1231,10 +1243,10 @@
     <tabColor indexed="41"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B2:F55"/>
+  <dimension ref="B2:F56"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showWhiteSpace="0" topLeftCell="A14" zoomScaleNormal="100" zoomScalePageLayoutView="86" workbookViewId="0">
-      <selection activeCell="D50" sqref="D50"/>
+    <sheetView showGridLines="0" tabSelected="1" showWhiteSpace="0" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="86" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -1249,10 +1261,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6" s="3" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="11"/>
+      <c r="C2" s="36"/>
       <c r="D2" s="1"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
@@ -1267,7 +1279,7 @@
       <c r="D3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="10" t="s">
         <v>4</v>
       </c>
       <c r="F3" s="5" t="s">
@@ -1275,620 +1287,631 @@
       </c>
     </row>
     <row r="4" spans="2:6" s="6" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="20"/>
-      <c r="C4" s="21" t="s">
+      <c r="B4" s="18"/>
+      <c r="C4" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="22"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="24"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="22"/>
     </row>
     <row r="5" spans="2:6" s="6" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B5" s="13">
+      <c r="B5" s="11">
         <v>1</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="24"/>
+      <c r="F5" s="22"/>
     </row>
     <row r="6" spans="2:6" s="6" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B6" s="13">
+      <c r="B6" s="11">
         <v>2</v>
       </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13" t="s">
+      <c r="C6" s="11"/>
+      <c r="D6" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="E6" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="24"/>
+      <c r="F6" s="22"/>
     </row>
     <row r="7" spans="2:6" s="6" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B7" s="13">
+      <c r="B7" s="11">
         <v>3</v>
       </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13" t="s">
+      <c r="C7" s="11"/>
+      <c r="D7" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="E7" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="24"/>
+      <c r="F7" s="22"/>
     </row>
     <row r="8" spans="2:6" s="6" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B8" s="13">
+      <c r="B8" s="11">
         <v>4</v>
       </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13" t="s">
+      <c r="C8" s="11"/>
+      <c r="D8" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="13" t="s">
+      <c r="E8" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="24"/>
+      <c r="F8" s="22"/>
     </row>
     <row r="9" spans="2:6" s="6" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B9" s="13">
+      <c r="B9" s="11">
         <v>5</v>
       </c>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13" t="s">
+      <c r="C9" s="11"/>
+      <c r="D9" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="13" t="s">
+      <c r="E9" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="24"/>
-    </row>
-    <row r="10" spans="2:6" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B10" s="25"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="26"/>
+      <c r="F9" s="22"/>
+    </row>
+    <row r="10" spans="2:6" s="15" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="B10" s="23"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="24"/>
     </row>
     <row r="11" spans="2:6" s="6" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="27"/>
-      <c r="C11" s="21" t="s">
+      <c r="B11" s="25"/>
+      <c r="C11" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="29"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="27"/>
     </row>
     <row r="12" spans="2:6" s="6" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B12" s="13">
+      <c r="B12" s="11">
         <v>6</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="C12" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="D12" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="30" t="s">
+      <c r="E12" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="F12" s="24"/>
+      <c r="F12" s="22"/>
     </row>
     <row r="13" spans="2:6" s="6" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B13" s="13">
+      <c r="B13" s="11">
         <v>7</v>
       </c>
-      <c r="C13" s="14"/>
-      <c r="D13" s="13" t="s">
+      <c r="C13" s="12"/>
+      <c r="D13" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="30" t="s">
+      <c r="E13" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="F13" s="24"/>
+      <c r="F13" s="22"/>
     </row>
     <row r="14" spans="2:6" s="6" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B14" s="13">
+      <c r="B14" s="11">
         <v>8</v>
       </c>
-      <c r="C14" s="14"/>
-      <c r="D14" s="13" t="s">
+      <c r="C14" s="12"/>
+      <c r="D14" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E14" s="30" t="s">
+      <c r="E14" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="24"/>
+      <c r="F14" s="22"/>
     </row>
     <row r="15" spans="2:6" s="6" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B15" s="13">
+      <c r="B15" s="11">
         <v>9</v>
       </c>
-      <c r="C15" s="14"/>
-      <c r="D15" s="13" t="s">
+      <c r="C15" s="12"/>
+      <c r="D15" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E15" s="30" t="s">
+      <c r="E15" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="F15" s="24"/>
+      <c r="F15" s="22"/>
     </row>
     <row r="16" spans="2:6" s="6" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B16" s="13">
+      <c r="B16" s="11">
         <v>11</v>
       </c>
-      <c r="C16" s="14"/>
-      <c r="D16" s="13" t="s">
+      <c r="C16" s="12"/>
+      <c r="D16" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E16" s="30"/>
-      <c r="F16" s="24"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="22"/>
     </row>
     <row r="17" spans="2:6" s="6" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B17" s="13">
+      <c r="B17" s="11">
         <v>12</v>
       </c>
-      <c r="C17" s="14"/>
-      <c r="D17" s="13" t="s">
+      <c r="C17" s="12"/>
+      <c r="D17" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E17" s="30"/>
-      <c r="F17" s="24"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="22"/>
     </row>
     <row r="18" spans="2:6" s="6" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B18" s="13">
+      <c r="B18" s="11">
         <v>13</v>
       </c>
-      <c r="C18" s="14"/>
-      <c r="D18" s="13" t="s">
+      <c r="C18" s="12"/>
+      <c r="D18" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="E18" s="30"/>
-      <c r="F18" s="24"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="22"/>
     </row>
     <row r="19" spans="2:6" s="6" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B19" s="13">
+      <c r="B19" s="11">
         <v>14</v>
       </c>
-      <c r="C19" s="14"/>
-      <c r="D19" s="13" t="s">
+      <c r="C19" s="12"/>
+      <c r="D19" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="E19" s="30"/>
-      <c r="F19" s="24"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="22"/>
     </row>
     <row r="20" spans="2:6" s="6" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B20" s="13">
+      <c r="B20" s="11">
         <v>15</v>
       </c>
-      <c r="C20" s="14"/>
-      <c r="D20" s="13" t="s">
+      <c r="C20" s="12"/>
+      <c r="D20" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="E20" s="30"/>
-      <c r="F20" s="24"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="22"/>
     </row>
     <row r="21" spans="2:6" s="6" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B21" s="13">
+      <c r="B21" s="11">
         <v>16</v>
       </c>
-      <c r="C21" s="14"/>
-      <c r="D21" s="13" t="s">
+      <c r="C21" s="12"/>
+      <c r="D21" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="E21" s="30"/>
-      <c r="F21" s="24"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="22"/>
     </row>
     <row r="22" spans="2:6" s="6" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B22" s="13">
+      <c r="B22" s="11">
         <v>17</v>
       </c>
-      <c r="C22" s="15"/>
-      <c r="D22" s="13" t="s">
+      <c r="C22" s="13"/>
+      <c r="D22" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="E22" s="30"/>
-      <c r="F22" s="24"/>
+      <c r="E22" s="28"/>
+      <c r="F22" s="22"/>
     </row>
     <row r="23" spans="2:6" s="6" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B23" s="30">
+      <c r="B23" s="11">
         <v>18</v>
       </c>
-      <c r="C23" s="19" t="s">
+      <c r="C23" s="37"/>
+      <c r="D23" s="37" t="s">
+        <v>72</v>
+      </c>
+      <c r="E23" s="38"/>
+      <c r="F23" s="38"/>
+    </row>
+    <row r="24" spans="2:6" s="6" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="B24" s="11">
+        <v>19</v>
+      </c>
+      <c r="C24" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="D23" s="13" t="s">
+      <c r="D24" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="E23" s="30" t="s">
+      <c r="E24" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="F23" s="24"/>
-    </row>
-    <row r="24" spans="2:6" s="6" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B24" s="13">
-        <v>19</v>
-      </c>
-      <c r="C24" s="30"/>
-      <c r="D24" s="13" t="s">
+      <c r="F24" s="22"/>
+    </row>
+    <row r="25" spans="2:6" s="6" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="B25" s="11">
+        <v>20</v>
+      </c>
+      <c r="C25" s="28"/>
+      <c r="D25" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="E24" s="30" t="s">
+      <c r="E25" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="F24" s="24"/>
-    </row>
-    <row r="25" spans="2:6" s="6" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B25" s="30">
-        <v>20</v>
-      </c>
-      <c r="C25" s="30"/>
-      <c r="D25" s="13" t="s">
+      <c r="F25" s="22"/>
+    </row>
+    <row r="26" spans="2:6" s="6" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="B26" s="11">
+        <v>21</v>
+      </c>
+      <c r="C26" s="28"/>
+      <c r="D26" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="E25" s="30"/>
-      <c r="F25" s="24"/>
-    </row>
-    <row r="26" spans="2:6" s="6" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B26" s="30">
-        <v>21</v>
-      </c>
-      <c r="C26" s="19" t="s">
+      <c r="E26" s="28"/>
+      <c r="F26" s="22"/>
+    </row>
+    <row r="27" spans="2:6" s="6" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="B27" s="11">
+        <v>22</v>
+      </c>
+      <c r="C27" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="D26" s="30" t="s">
+      <c r="D27" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="E26" s="30"/>
-      <c r="F26" s="24"/>
-    </row>
-    <row r="27" spans="2:6" s="6" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B27" s="13">
-        <v>22</v>
-      </c>
-      <c r="C27" s="30"/>
-      <c r="D27" s="30" t="s">
+      <c r="E27" s="28"/>
+      <c r="F27" s="22"/>
+    </row>
+    <row r="28" spans="2:6" s="6" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="B28" s="11">
+        <v>23</v>
+      </c>
+      <c r="C28" s="28"/>
+      <c r="D28" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="E27" s="30"/>
-      <c r="F27" s="24"/>
-    </row>
-    <row r="28" spans="2:6" s="6" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B28" s="30">
-        <v>23</v>
-      </c>
-      <c r="C28" s="30"/>
-      <c r="D28" s="13" t="s">
+      <c r="E28" s="28"/>
+      <c r="F28" s="22"/>
+    </row>
+    <row r="29" spans="2:6" s="6" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="B29" s="11">
+        <v>24</v>
+      </c>
+      <c r="C29" s="28"/>
+      <c r="D29" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="E28" s="30"/>
-      <c r="F28" s="24"/>
-    </row>
-    <row r="29" spans="2:6" s="6" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B29" s="13">
-        <v>24</v>
-      </c>
-      <c r="C29" s="31" t="s">
+      <c r="E29" s="28"/>
+      <c r="F29" s="22"/>
+    </row>
+    <row r="30" spans="2:6" s="6" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="B30" s="11">
+        <v>25</v>
+      </c>
+      <c r="C30" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="D29" s="30" t="s">
+      <c r="D30" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="E29" s="24"/>
-      <c r="F29" s="24"/>
-    </row>
-    <row r="30" spans="2:6" s="6" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B30" s="30">
-        <v>25</v>
-      </c>
-      <c r="C30" s="31" t="s">
+      <c r="E30" s="22"/>
+      <c r="F30" s="22"/>
+    </row>
+    <row r="31" spans="2:6" s="6" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="B31" s="11">
+        <v>26</v>
+      </c>
+      <c r="C31" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="D30" s="30" t="s">
+      <c r="D31" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="E30" s="30" t="s">
+      <c r="E31" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="F30" s="24"/>
-    </row>
-    <row r="31" spans="2:6" s="6" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B31" s="30">
-        <v>26</v>
-      </c>
-      <c r="C31" s="30"/>
-      <c r="D31" s="30" t="s">
+      <c r="F31" s="22"/>
+    </row>
+    <row r="32" spans="2:6" s="6" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="B32" s="11">
+        <v>27</v>
+      </c>
+      <c r="C32" s="28"/>
+      <c r="D32" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="E31" s="30" t="s">
+      <c r="E32" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="F31" s="24"/>
-    </row>
-    <row r="32" spans="2:6" s="6" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B32" s="13">
-        <v>27</v>
-      </c>
-      <c r="C32" s="30"/>
-      <c r="D32" s="30" t="s">
+      <c r="F32" s="22"/>
+    </row>
+    <row r="33" spans="2:6" s="6" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="B33" s="11">
+        <v>28</v>
+      </c>
+      <c r="C33" s="28"/>
+      <c r="D33" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="E32" s="30" t="s">
+      <c r="E33" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="F32" s="24"/>
-    </row>
-    <row r="33" spans="2:6" s="6" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B33" s="30">
-        <v>28</v>
-      </c>
-      <c r="C33" s="31" t="s">
+      <c r="F33" s="22"/>
+    </row>
+    <row r="34" spans="2:6" s="6" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="B34" s="11">
+        <v>29</v>
+      </c>
+      <c r="C34" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="D33" s="30" t="s">
+      <c r="D34" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="E33" s="30"/>
-      <c r="F33" s="24"/>
-    </row>
-    <row r="34" spans="2:6" s="6" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B34" s="13">
-        <v>29</v>
-      </c>
-      <c r="C34" s="30"/>
-      <c r="D34" s="30" t="s">
+      <c r="E34" s="28"/>
+      <c r="F34" s="22"/>
+    </row>
+    <row r="35" spans="2:6" s="6" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="B35" s="11">
+        <v>30</v>
+      </c>
+      <c r="C35" s="28"/>
+      <c r="D35" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="E34" s="30"/>
-      <c r="F34" s="24"/>
-    </row>
-    <row r="35" spans="2:6" s="6" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B35" s="30">
-        <v>30</v>
-      </c>
-      <c r="C35" s="31" t="s">
+      <c r="E35" s="28"/>
+      <c r="F35" s="22"/>
+    </row>
+    <row r="36" spans="2:6" s="6" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="B36" s="11">
+        <v>31</v>
+      </c>
+      <c r="C36" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="D35" s="30" t="s">
+      <c r="D36" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="E35" s="30"/>
-      <c r="F35" s="24"/>
-    </row>
-    <row r="36" spans="2:6" s="6" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B36" s="30">
-        <v>31</v>
-      </c>
-      <c r="C36" s="31" t="s">
+      <c r="E36" s="28"/>
+      <c r="F36" s="22"/>
+    </row>
+    <row r="37" spans="2:6" s="6" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="B37" s="11">
+        <v>32</v>
+      </c>
+      <c r="C37" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="D36" s="30" t="s">
+      <c r="D37" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="E36" s="30"/>
-      <c r="F36" s="24"/>
-    </row>
-    <row r="37" spans="2:6" s="6" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B37" s="13">
-        <v>32</v>
-      </c>
-      <c r="C37" s="31" t="s">
+      <c r="E37" s="28"/>
+      <c r="F37" s="22"/>
+    </row>
+    <row r="38" spans="2:6" s="6" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="B38" s="11">
+        <v>33</v>
+      </c>
+      <c r="C38" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="D37" s="30" t="s">
+      <c r="D38" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="E37" s="30"/>
-      <c r="F37" s="24"/>
-    </row>
-    <row r="38" spans="2:6" s="6" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B38" s="27"/>
-      <c r="C38" s="21" t="s">
+      <c r="E38" s="28"/>
+      <c r="F38" s="22"/>
+    </row>
+    <row r="39" spans="2:6" s="6" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B39" s="25"/>
+      <c r="C39" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="D38" s="28"/>
-      <c r="E38" s="28"/>
-      <c r="F38" s="29"/>
-    </row>
-    <row r="39" spans="2:6" s="6" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B39" s="30">
-        <v>33</v>
-      </c>
-      <c r="C39" s="31" t="s">
+      <c r="D39" s="26"/>
+      <c r="E39" s="26"/>
+      <c r="F39" s="27"/>
+    </row>
+    <row r="40" spans="2:6" s="6" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B40" s="28">
+        <v>34</v>
+      </c>
+      <c r="C40" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="D39" s="33" t="s">
+      <c r="D40" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="E39" s="30"/>
-      <c r="F39" s="24"/>
-    </row>
-    <row r="40" spans="2:6" s="6" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B40" s="30">
-        <v>34</v>
-      </c>
-      <c r="C40" s="30"/>
-      <c r="D40" s="34" t="s">
+      <c r="E40" s="28"/>
+      <c r="F40" s="22"/>
+    </row>
+    <row r="41" spans="2:6" s="6" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B41" s="28">
+        <v>35</v>
+      </c>
+      <c r="C41" s="28"/>
+      <c r="D41" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="E40" s="30"/>
-      <c r="F40" s="24"/>
-    </row>
-    <row r="41" spans="2:6" s="6" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B41" s="30">
-        <v>35</v>
-      </c>
-      <c r="C41" s="30"/>
-      <c r="D41" s="35" t="s">
+      <c r="E41" s="28"/>
+      <c r="F41" s="22"/>
+    </row>
+    <row r="42" spans="2:6" s="6" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B42" s="28">
+        <v>36</v>
+      </c>
+      <c r="C42" s="28"/>
+      <c r="D42" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="E41" s="30"/>
-      <c r="F41" s="24"/>
-    </row>
-    <row r="42" spans="2:6" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="B42" s="30">
-        <v>36</v>
-      </c>
-      <c r="C42" s="31" t="s">
+      <c r="E42" s="28"/>
+      <c r="F42" s="22"/>
+    </row>
+    <row r="43" spans="2:6" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="B43" s="28">
+        <v>37</v>
+      </c>
+      <c r="C43" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="D42" s="30" t="s">
+      <c r="D43" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="E42" s="24"/>
-      <c r="F42" s="24"/>
-    </row>
-    <row r="43" spans="2:6" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="B43" s="30">
-        <v>37</v>
-      </c>
-      <c r="C43" s="30"/>
-      <c r="D43" s="30" t="s">
+      <c r="E43" s="22"/>
+      <c r="F43" s="22"/>
+    </row>
+    <row r="44" spans="2:6" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="B44" s="28">
+        <v>38</v>
+      </c>
+      <c r="C44" s="28"/>
+      <c r="D44" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="E43" s="24"/>
-      <c r="F43" s="24"/>
-    </row>
-    <row r="44" spans="2:6" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="B44" s="30">
-        <v>38</v>
-      </c>
-      <c r="C44" s="30"/>
-      <c r="D44" s="30" t="s">
+      <c r="E44" s="22"/>
+      <c r="F44" s="22"/>
+    </row>
+    <row r="45" spans="2:6" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="B45" s="28">
+        <v>39</v>
+      </c>
+      <c r="C45" s="28"/>
+      <c r="D45" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="E44" s="24"/>
-      <c r="F44" s="24"/>
-    </row>
-    <row r="45" spans="2:6" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="B45" s="30">
-        <v>39</v>
-      </c>
-      <c r="C45" s="19" t="s">
+      <c r="E45" s="22"/>
+      <c r="F45" s="22"/>
+    </row>
+    <row r="46" spans="2:6" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="B46" s="28">
+        <v>40</v>
+      </c>
+      <c r="C46" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="D45" s="36" t="s">
+      <c r="D46" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="E45" s="24"/>
-      <c r="F45" s="24"/>
-    </row>
-    <row r="46" spans="2:6" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="B46" s="30">
+      <c r="E46" s="22"/>
+      <c r="F46" s="22"/>
+    </row>
+    <row r="47" spans="2:6" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="B47" s="28">
         <v>41</v>
       </c>
-      <c r="C46" s="27"/>
-      <c r="D46" s="36" t="s">
+      <c r="C47" s="25"/>
+      <c r="D47" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="E46" s="24"/>
-      <c r="F46" s="24"/>
-    </row>
-    <row r="47" spans="2:6" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="B47" s="30">
+      <c r="E47" s="22"/>
+      <c r="F47" s="22"/>
+    </row>
+    <row r="48" spans="2:6" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="B48" s="28">
         <v>42</v>
       </c>
-      <c r="C47" s="27"/>
-      <c r="D47" s="36" t="s">
+      <c r="C48" s="25"/>
+      <c r="D48" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="E47" s="24"/>
-      <c r="F47" s="24"/>
-    </row>
-    <row r="48" spans="2:6" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="B48" s="30">
+      <c r="E48" s="22"/>
+      <c r="F48" s="22"/>
+    </row>
+    <row r="49" spans="2:6" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="B49" s="28">
         <v>43</v>
       </c>
-      <c r="C48" s="19" t="s">
+      <c r="C49" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="D48" s="36" t="s">
+      <c r="D49" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="E48" s="24"/>
-      <c r="F48" s="24"/>
-    </row>
-    <row r="49" spans="2:6" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="B49" s="30">
+      <c r="E49" s="22"/>
+      <c r="F49" s="22"/>
+    </row>
+    <row r="50" spans="2:6" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="B50" s="28">
         <v>44</v>
       </c>
-      <c r="C49" s="30"/>
-      <c r="D49" s="36" t="s">
+      <c r="C50" s="28"/>
+      <c r="D50" s="34" t="s">
         <v>65</v>
       </c>
-      <c r="E49" s="24"/>
-      <c r="F49" s="24"/>
-    </row>
-    <row r="50" spans="2:6" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="B50" s="30">
+      <c r="E50" s="22"/>
+      <c r="F50" s="22"/>
+    </row>
+    <row r="51" spans="2:6" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="B51" s="28">
         <v>45</v>
       </c>
-      <c r="C50" s="30"/>
-      <c r="D50" s="36" t="s">
+      <c r="C51" s="28"/>
+      <c r="D51" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="E50" s="24"/>
-      <c r="F50" s="24"/>
-    </row>
-    <row r="51" spans="2:6" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="B51" s="30">
+      <c r="E51" s="22"/>
+      <c r="F51" s="22"/>
+    </row>
+    <row r="52" spans="2:6" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="B52" s="28">
         <v>46</v>
       </c>
-      <c r="C51" s="31" t="s">
+      <c r="C52" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="D51" s="30"/>
-      <c r="E51" s="24"/>
-      <c r="F51" s="24"/>
-    </row>
-    <row r="52" spans="2:6" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="B52" s="30">
+      <c r="D52" s="28"/>
+      <c r="E52" s="22"/>
+      <c r="F52" s="22"/>
+    </row>
+    <row r="53" spans="2:6" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="B53" s="28">
         <v>47</v>
       </c>
-      <c r="C52" s="31" t="s">
+      <c r="C53" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="D52" s="30" t="s">
+      <c r="D53" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="E52" s="24"/>
-      <c r="F52" s="24"/>
-    </row>
-    <row r="53" spans="2:6" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="B53" s="30">
+      <c r="E53" s="22"/>
+      <c r="F53" s="22"/>
+    </row>
+    <row r="54" spans="2:6" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="B54" s="28">
         <v>48</v>
       </c>
-      <c r="C53" s="25"/>
-      <c r="D53" s="30" t="s">
+      <c r="C54" s="23"/>
+      <c r="D54" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="E53" s="24"/>
-      <c r="F53" s="24"/>
-    </row>
-    <row r="54" spans="2:6" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="B54" s="30">
+      <c r="E54" s="22"/>
+      <c r="F54" s="22"/>
+    </row>
+    <row r="55" spans="2:6" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="B55" s="28">
         <v>49</v>
       </c>
-      <c r="C54" s="30"/>
-      <c r="D54" s="30" t="s">
+      <c r="C55" s="28"/>
+      <c r="D55" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="E54" s="24"/>
-      <c r="F54" s="24"/>
-    </row>
-    <row r="55" spans="2:6" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="B55" s="32"/>
-      <c r="C55" s="30"/>
-      <c r="D55" s="30"/>
-      <c r="E55" s="24"/>
-      <c r="F55" s="24"/>
+      <c r="E55" s="22"/>
+      <c r="F55" s="22"/>
+    </row>
+    <row r="56" spans="2:6" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="B56" s="30"/>
+      <c r="C56" s="28"/>
+      <c r="D56" s="28"/>
+      <c r="E56" s="22"/>
+      <c r="F56" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/WIP/Documents/Function check list.xlsx
+++ b/WIP/Documents/Function check list.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1_WingS\201609JS01\WIP\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\WingS\201609JS01\201609JS01\WIP\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="75">
   <si>
     <t>Return Time</t>
   </si>
@@ -242,6 +242,12 @@
   </si>
   <si>
     <t>Report Other User</t>
+  </si>
+  <si>
+    <t>Organization</t>
+  </si>
+  <si>
+    <t>Create Organization</t>
   </si>
 </sst>
 </file>
@@ -504,7 +510,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -572,11 +578,14 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -941,8 +950,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B3:F56" totalsRowShown="0" headerRowDxfId="9" dataDxfId="7" headerRowBorderDxfId="8" tableBorderDxfId="6" totalsRowBorderDxfId="5">
-  <autoFilter ref="B3:F56"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B3:F58" totalsRowShown="0" headerRowDxfId="9" dataDxfId="7" headerRowBorderDxfId="8" tableBorderDxfId="6" totalsRowBorderDxfId="5">
+  <autoFilter ref="B3:F58"/>
   <tableColumns count="5">
     <tableColumn id="1" name="No" dataDxfId="4"/>
     <tableColumn id="2" name="Group" dataDxfId="3"/>
@@ -1243,10 +1252,10 @@
     <tabColor indexed="41"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B2:F56"/>
+  <dimension ref="B2:F58"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showWhiteSpace="0" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="86" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -1261,10 +1270,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6" s="3" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="36"/>
+      <c r="C2" s="38"/>
       <c r="D2" s="1"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
@@ -1440,7 +1449,9 @@
       <c r="D16" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E16" s="28"/>
+      <c r="E16" s="28" t="s">
+        <v>10</v>
+      </c>
       <c r="F16" s="22"/>
     </row>
     <row r="17" spans="2:6" s="6" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
@@ -1473,7 +1484,9 @@
       <c r="D19" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="E19" s="28"/>
+      <c r="E19" s="28" t="s">
+        <v>10</v>
+      </c>
       <c r="F19" s="22"/>
     </row>
     <row r="20" spans="2:6" s="6" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
@@ -1484,7 +1497,9 @@
       <c r="D20" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="E20" s="28"/>
+      <c r="E20" s="28" t="s">
+        <v>10</v>
+      </c>
       <c r="F20" s="22"/>
     </row>
     <row r="21" spans="2:6" s="6" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
@@ -1513,12 +1528,12 @@
       <c r="B23" s="11">
         <v>18</v>
       </c>
-      <c r="C23" s="37"/>
-      <c r="D23" s="37" t="s">
+      <c r="C23" s="35"/>
+      <c r="D23" s="35" t="s">
         <v>72</v>
       </c>
-      <c r="E23" s="38"/>
-      <c r="F23" s="38"/>
+      <c r="E23" s="36"/>
+      <c r="F23" s="36"/>
     </row>
     <row r="24" spans="2:6" s="6" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="B24" s="11">
@@ -1699,219 +1714,239 @@
       <c r="F37" s="22"/>
     </row>
     <row r="38" spans="2:6" s="6" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B38" s="11">
+      <c r="B38" s="39"/>
+      <c r="C38" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="D38" s="35" t="s">
+        <v>74</v>
+      </c>
+      <c r="E38" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="F38" s="36"/>
+    </row>
+    <row r="39" spans="2:6" s="6" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="B39" s="39"/>
+      <c r="C39" s="35"/>
+      <c r="D39" s="35"/>
+      <c r="E39" s="36"/>
+      <c r="F39" s="36"/>
+    </row>
+    <row r="40" spans="2:6" s="6" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="B40" s="11">
         <v>33</v>
       </c>
-      <c r="C38" s="29" t="s">
+      <c r="C40" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="D38" s="28" t="s">
+      <c r="D40" s="28" t="s">
         <v>46</v>
-      </c>
-      <c r="E38" s="28"/>
-      <c r="F38" s="22"/>
-    </row>
-    <row r="39" spans="2:6" s="6" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B39" s="25"/>
-      <c r="C39" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="D39" s="26"/>
-      <c r="E39" s="26"/>
-      <c r="F39" s="27"/>
-    </row>
-    <row r="40" spans="2:6" s="6" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B40" s="28">
-        <v>34</v>
-      </c>
-      <c r="C40" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="D40" s="31" t="s">
-        <v>50</v>
       </c>
       <c r="E40" s="28"/>
       <c r="F40" s="22"/>
     </row>
-    <row r="41" spans="2:6" s="6" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B41" s="28">
-        <v>35</v>
-      </c>
-      <c r="C41" s="28"/>
-      <c r="D41" s="32" t="s">
-        <v>51</v>
-      </c>
-      <c r="E41" s="28"/>
-      <c r="F41" s="22"/>
+    <row r="41" spans="2:6" s="6" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B41" s="25"/>
+      <c r="C41" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="D41" s="26"/>
+      <c r="E41" s="26"/>
+      <c r="F41" s="27"/>
     </row>
     <row r="42" spans="2:6" s="6" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B42" s="28">
-        <v>36</v>
-      </c>
-      <c r="C42" s="28"/>
-      <c r="D42" s="33" t="s">
-        <v>52</v>
+        <v>34</v>
+      </c>
+      <c r="C42" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="D42" s="31" t="s">
+        <v>50</v>
       </c>
       <c r="E42" s="28"/>
       <c r="F42" s="22"/>
     </row>
-    <row r="43" spans="2:6" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:6" s="6" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B43" s="28">
-        <v>37</v>
-      </c>
-      <c r="C43" s="29" t="s">
-        <v>55</v>
-      </c>
-      <c r="D43" s="28" t="s">
-        <v>56</v>
-      </c>
-      <c r="E43" s="22"/>
+        <v>35</v>
+      </c>
+      <c r="C43" s="28"/>
+      <c r="D43" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="E43" s="28"/>
       <c r="F43" s="22"/>
     </row>
-    <row r="44" spans="2:6" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:6" s="6" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B44" s="28">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C44" s="28"/>
-      <c r="D44" s="28" t="s">
-        <v>57</v>
-      </c>
-      <c r="E44" s="22"/>
+      <c r="D44" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="E44" s="28"/>
       <c r="F44" s="22"/>
     </row>
     <row r="45" spans="2:6" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B45" s="28">
-        <v>39</v>
-      </c>
-      <c r="C45" s="28"/>
+        <v>37</v>
+      </c>
+      <c r="C45" s="29" t="s">
+        <v>55</v>
+      </c>
       <c r="D45" s="28" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E45" s="22"/>
       <c r="F45" s="22"/>
     </row>
     <row r="46" spans="2:6" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B46" s="28">
-        <v>40</v>
-      </c>
-      <c r="C46" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="D46" s="34" t="s">
-        <v>60</v>
+        <v>38</v>
+      </c>
+      <c r="C46" s="28"/>
+      <c r="D46" s="28" t="s">
+        <v>57</v>
       </c>
       <c r="E46" s="22"/>
       <c r="F46" s="22"/>
     </row>
     <row r="47" spans="2:6" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B47" s="28">
-        <v>41</v>
-      </c>
-      <c r="C47" s="25"/>
-      <c r="D47" s="34" t="s">
-        <v>61</v>
+        <v>39</v>
+      </c>
+      <c r="C47" s="28"/>
+      <c r="D47" s="28" t="s">
+        <v>58</v>
       </c>
       <c r="E47" s="22"/>
       <c r="F47" s="22"/>
     </row>
     <row r="48" spans="2:6" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B48" s="28">
-        <v>42</v>
-      </c>
-      <c r="C48" s="25"/>
+        <v>40</v>
+      </c>
+      <c r="C48" s="17" t="s">
+        <v>59</v>
+      </c>
       <c r="D48" s="34" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E48" s="22"/>
       <c r="F48" s="22"/>
     </row>
     <row r="49" spans="2:6" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B49" s="28">
-        <v>43</v>
-      </c>
-      <c r="C49" s="17" t="s">
-        <v>63</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="C49" s="25"/>
       <c r="D49" s="34" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E49" s="22"/>
       <c r="F49" s="22"/>
     </row>
     <row r="50" spans="2:6" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B50" s="28">
-        <v>44</v>
-      </c>
-      <c r="C50" s="28"/>
+        <v>42</v>
+      </c>
+      <c r="C50" s="25"/>
       <c r="D50" s="34" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E50" s="22"/>
       <c r="F50" s="22"/>
     </row>
     <row r="51" spans="2:6" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B51" s="28">
-        <v>45</v>
-      </c>
-      <c r="C51" s="28"/>
+        <v>43</v>
+      </c>
+      <c r="C51" s="17" t="s">
+        <v>63</v>
+      </c>
       <c r="D51" s="34" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E51" s="22"/>
       <c r="F51" s="22"/>
     </row>
     <row r="52" spans="2:6" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B52" s="28">
-        <v>46</v>
-      </c>
-      <c r="C52" s="29" t="s">
-        <v>67</v>
-      </c>
-      <c r="D52" s="28"/>
+        <v>44</v>
+      </c>
+      <c r="C52" s="28"/>
+      <c r="D52" s="34" t="s">
+        <v>65</v>
+      </c>
       <c r="E52" s="22"/>
       <c r="F52" s="22"/>
     </row>
     <row r="53" spans="2:6" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B53" s="28">
-        <v>47</v>
-      </c>
-      <c r="C53" s="29" t="s">
-        <v>68</v>
-      </c>
-      <c r="D53" s="28" t="s">
-        <v>69</v>
+        <v>45</v>
+      </c>
+      <c r="C53" s="28"/>
+      <c r="D53" s="34" t="s">
+        <v>66</v>
       </c>
       <c r="E53" s="22"/>
       <c r="F53" s="22"/>
     </row>
     <row r="54" spans="2:6" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B54" s="28">
-        <v>48</v>
-      </c>
-      <c r="C54" s="23"/>
-      <c r="D54" s="28" t="s">
-        <v>70</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="C54" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="D54" s="28"/>
       <c r="E54" s="22"/>
       <c r="F54" s="22"/>
     </row>
     <row r="55" spans="2:6" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B55" s="28">
-        <v>49</v>
-      </c>
-      <c r="C55" s="28"/>
+        <v>47</v>
+      </c>
+      <c r="C55" s="29" t="s">
+        <v>68</v>
+      </c>
       <c r="D55" s="28" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E55" s="22"/>
       <c r="F55" s="22"/>
     </row>
     <row r="56" spans="2:6" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="B56" s="30"/>
-      <c r="C56" s="28"/>
-      <c r="D56" s="28"/>
+      <c r="B56" s="28">
+        <v>48</v>
+      </c>
+      <c r="C56" s="23"/>
+      <c r="D56" s="28" t="s">
+        <v>70</v>
+      </c>
       <c r="E56" s="22"/>
       <c r="F56" s="22"/>
+    </row>
+    <row r="57" spans="2:6" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="B57" s="28">
+        <v>49</v>
+      </c>
+      <c r="C57" s="28"/>
+      <c r="D57" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="E57" s="22"/>
+      <c r="F57" s="22"/>
+    </row>
+    <row r="58" spans="2:6" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="B58" s="30"/>
+      <c r="C58" s="28"/>
+      <c r="D58" s="28"/>
+      <c r="E58" s="22"/>
+      <c r="F58" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/WIP/Documents/Function check list.xlsx
+++ b/WIP/Documents/Function check list.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\WingS\201609JS01\201609JS01\WIP\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1_WingS\201609JS01\WIP\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="80">
   <si>
     <t>Return Time</t>
   </si>
@@ -248,6 +248,21 @@
   </si>
   <si>
     <t>Create Organization</t>
+  </si>
+  <si>
+    <t>View Organization</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Edit Organization </t>
+  </si>
+  <si>
+    <t>80% còn một số phần chưa bind data</t>
+  </si>
+  <si>
+    <t>Note</t>
+  </si>
+  <si>
+    <t>90% : chưa delete được ảnh logo lưu trong thư mục</t>
   </si>
 </sst>
 </file>
@@ -258,7 +273,7 @@
     <numFmt numFmtId="164" formatCode="[$-409]h:mm\ AM/PM;@"/>
     <numFmt numFmtId="165" formatCode="m/d/yy;@"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -331,6 +346,13 @@
       <color theme="1" tint="0.249977111117893"/>
       <name val="Times New Roman"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1" tint="0.249977111117893"/>
+      <name val="Trebuchet MS"/>
+      <scheme val="major"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -370,7 +392,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -506,11 +528,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="23"/>
+      </left>
+      <right style="thin">
+        <color indexed="23"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="23"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -582,16 +617,41 @@
     <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="11">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1" tint="0.249977111117893"/>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -950,14 +1010,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B3:F58" totalsRowShown="0" headerRowDxfId="9" dataDxfId="7" headerRowBorderDxfId="8" tableBorderDxfId="6" totalsRowBorderDxfId="5">
-  <autoFilter ref="B3:F58"/>
-  <tableColumns count="5">
-    <tableColumn id="1" name="No" dataDxfId="4"/>
-    <tableColumn id="2" name="Group" dataDxfId="3"/>
-    <tableColumn id="3" name="Function" dataDxfId="2"/>
-    <tableColumn id="4" name="Status" dataDxfId="1"/>
-    <tableColumn id="5" name="Return Time" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B3:G59" totalsRowShown="0" headerRowDxfId="10" dataDxfId="8" headerRowBorderDxfId="9" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="B3:G59"/>
+  <tableColumns count="6">
+    <tableColumn id="1" name="No" dataDxfId="5"/>
+    <tableColumn id="2" name="Group" dataDxfId="4"/>
+    <tableColumn id="3" name="Function" dataDxfId="3"/>
+    <tableColumn id="4" name="Status" dataDxfId="2"/>
+    <tableColumn id="5" name="Return Time" dataDxfId="1"/>
+    <tableColumn id="6" name="Note" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1252,10 +1313,10 @@
     <tabColor indexed="41"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B2:F58"/>
+  <dimension ref="B2:G59"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showWhiteSpace="0" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="86" workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
+    <sheetView showGridLines="0" tabSelected="1" showWhiteSpace="0" topLeftCell="A25" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="86" workbookViewId="0">
+      <selection activeCell="G44" sqref="G44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -1266,19 +1327,20 @@
     <col min="4" max="4" width="33.42578125" style="7" customWidth="1"/>
     <col min="5" max="5" width="17.42578125" style="8" customWidth="1"/>
     <col min="6" max="6" width="24.140625" style="8" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="7"/>
+    <col min="7" max="7" width="46.5703125" style="7" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" s="3" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="37" t="s">
+    <row r="2" spans="2:7" s="3" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B2" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="38"/>
+      <c r="C2" s="39"/>
       <c r="D2" s="1"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="2:6" s="4" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:7" s="4" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="5" t="s">
         <v>1</v>
       </c>
@@ -1294,8 +1356,11 @@
       <c r="F3" s="5" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="2:6" s="6" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G3" s="41" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" s="6" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="18"/>
       <c r="C4" s="19" t="s">
         <v>5</v>
@@ -1303,8 +1368,9 @@
       <c r="D4" s="20"/>
       <c r="E4" s="21"/>
       <c r="F4" s="22"/>
-    </row>
-    <row r="5" spans="2:6" s="6" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="G4" s="40"/>
+    </row>
+    <row r="5" spans="2:7" s="6" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="B5" s="11">
         <v>1</v>
       </c>
@@ -1318,8 +1384,9 @@
         <v>10</v>
       </c>
       <c r="F5" s="22"/>
-    </row>
-    <row r="6" spans="2:6" s="6" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="G5" s="40"/>
+    </row>
+    <row r="6" spans="2:7" s="6" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="B6" s="11">
         <v>2</v>
       </c>
@@ -1331,8 +1398,9 @@
         <v>10</v>
       </c>
       <c r="F6" s="22"/>
-    </row>
-    <row r="7" spans="2:6" s="6" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="G6" s="40"/>
+    </row>
+    <row r="7" spans="2:7" s="6" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="B7" s="11">
         <v>3</v>
       </c>
@@ -1344,8 +1412,9 @@
         <v>10</v>
       </c>
       <c r="F7" s="22"/>
-    </row>
-    <row r="8" spans="2:6" s="6" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="G7" s="40"/>
+    </row>
+    <row r="8" spans="2:7" s="6" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="B8" s="11">
         <v>4</v>
       </c>
@@ -1357,8 +1426,9 @@
         <v>10</v>
       </c>
       <c r="F8" s="22"/>
-    </row>
-    <row r="9" spans="2:6" s="6" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="G8" s="40"/>
+    </row>
+    <row r="9" spans="2:7" s="6" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="B9" s="11">
         <v>5</v>
       </c>
@@ -1370,15 +1440,17 @@
         <v>10</v>
       </c>
       <c r="F9" s="22"/>
-    </row>
-    <row r="10" spans="2:6" s="15" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="G9" s="40"/>
+    </row>
+    <row r="10" spans="2:7" s="15" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="B10" s="23"/>
       <c r="C10" s="23"/>
       <c r="D10" s="23"/>
       <c r="E10" s="23"/>
       <c r="F10" s="24"/>
-    </row>
-    <row r="11" spans="2:6" s="6" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G10" s="40"/>
+    </row>
+    <row r="11" spans="2:7" s="6" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="25"/>
       <c r="C11" s="19" t="s">
         <v>14</v>
@@ -1386,8 +1458,9 @@
       <c r="D11" s="26"/>
       <c r="E11" s="26"/>
       <c r="F11" s="27"/>
-    </row>
-    <row r="12" spans="2:6" s="6" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="G11" s="40"/>
+    </row>
+    <row r="12" spans="2:7" s="6" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="B12" s="11">
         <v>6</v>
       </c>
@@ -1401,8 +1474,9 @@
         <v>10</v>
       </c>
       <c r="F12" s="22"/>
-    </row>
-    <row r="13" spans="2:6" s="6" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="G12" s="40"/>
+    </row>
+    <row r="13" spans="2:7" s="6" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="B13" s="11">
         <v>7</v>
       </c>
@@ -1414,8 +1488,9 @@
         <v>10</v>
       </c>
       <c r="F13" s="22"/>
-    </row>
-    <row r="14" spans="2:6" s="6" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="G13" s="40"/>
+    </row>
+    <row r="14" spans="2:7" s="6" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="B14" s="11">
         <v>8</v>
       </c>
@@ -1427,8 +1502,9 @@
         <v>10</v>
       </c>
       <c r="F14" s="22"/>
-    </row>
-    <row r="15" spans="2:6" s="6" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="G14" s="40"/>
+    </row>
+    <row r="15" spans="2:7" s="6" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="B15" s="11">
         <v>9</v>
       </c>
@@ -1440,8 +1516,9 @@
         <v>10</v>
       </c>
       <c r="F15" s="22"/>
-    </row>
-    <row r="16" spans="2:6" s="6" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="G15" s="40"/>
+    </row>
+    <row r="16" spans="2:7" s="6" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="B16" s="11">
         <v>11</v>
       </c>
@@ -1453,8 +1530,9 @@
         <v>10</v>
       </c>
       <c r="F16" s="22"/>
-    </row>
-    <row r="17" spans="2:6" s="6" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="G16" s="40"/>
+    </row>
+    <row r="17" spans="2:7" s="6" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="B17" s="11">
         <v>12</v>
       </c>
@@ -1464,8 +1542,9 @@
       </c>
       <c r="E17" s="28"/>
       <c r="F17" s="22"/>
-    </row>
-    <row r="18" spans="2:6" s="6" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="G17" s="40"/>
+    </row>
+    <row r="18" spans="2:7" s="6" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="B18" s="11">
         <v>13</v>
       </c>
@@ -1475,8 +1554,9 @@
       </c>
       <c r="E18" s="28"/>
       <c r="F18" s="22"/>
-    </row>
-    <row r="19" spans="2:6" s="6" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="G18" s="40"/>
+    </row>
+    <row r="19" spans="2:7" s="6" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="B19" s="11">
         <v>14</v>
       </c>
@@ -1488,8 +1568,9 @@
         <v>10</v>
       </c>
       <c r="F19" s="22"/>
-    </row>
-    <row r="20" spans="2:6" s="6" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="G19" s="40"/>
+    </row>
+    <row r="20" spans="2:7" s="6" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="B20" s="11">
         <v>15</v>
       </c>
@@ -1501,8 +1582,9 @@
         <v>10</v>
       </c>
       <c r="F20" s="22"/>
-    </row>
-    <row r="21" spans="2:6" s="6" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="G20" s="40"/>
+    </row>
+    <row r="21" spans="2:7" s="6" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="B21" s="11">
         <v>16</v>
       </c>
@@ -1512,8 +1594,9 @@
       </c>
       <c r="E21" s="28"/>
       <c r="F21" s="22"/>
-    </row>
-    <row r="22" spans="2:6" s="6" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="G21" s="40"/>
+    </row>
+    <row r="22" spans="2:7" s="6" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="B22" s="11">
         <v>17</v>
       </c>
@@ -1523,8 +1606,9 @@
       </c>
       <c r="E22" s="28"/>
       <c r="F22" s="22"/>
-    </row>
-    <row r="23" spans="2:6" s="6" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="G22" s="40"/>
+    </row>
+    <row r="23" spans="2:7" s="6" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="B23" s="11">
         <v>18</v>
       </c>
@@ -1534,8 +1618,9 @@
       </c>
       <c r="E23" s="36"/>
       <c r="F23" s="36"/>
-    </row>
-    <row r="24" spans="2:6" s="6" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="G23" s="40"/>
+    </row>
+    <row r="24" spans="2:7" s="6" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="B24" s="11">
         <v>19</v>
       </c>
@@ -1549,8 +1634,9 @@
         <v>53</v>
       </c>
       <c r="F24" s="22"/>
-    </row>
-    <row r="25" spans="2:6" s="6" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="G24" s="40"/>
+    </row>
+    <row r="25" spans="2:7" s="6" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="B25" s="11">
         <v>20</v>
       </c>
@@ -1562,8 +1648,9 @@
         <v>10</v>
       </c>
       <c r="F25" s="22"/>
-    </row>
-    <row r="26" spans="2:6" s="6" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="G25" s="40"/>
+    </row>
+    <row r="26" spans="2:7" s="6" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="B26" s="11">
         <v>21</v>
       </c>
@@ -1573,8 +1660,9 @@
       </c>
       <c r="E26" s="28"/>
       <c r="F26" s="22"/>
-    </row>
-    <row r="27" spans="2:6" s="6" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="G26" s="40"/>
+    </row>
+    <row r="27" spans="2:7" s="6" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="B27" s="11">
         <v>22</v>
       </c>
@@ -1586,8 +1674,9 @@
       </c>
       <c r="E27" s="28"/>
       <c r="F27" s="22"/>
-    </row>
-    <row r="28" spans="2:6" s="6" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="G27" s="40"/>
+    </row>
+    <row r="28" spans="2:7" s="6" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="B28" s="11">
         <v>23</v>
       </c>
@@ -1597,8 +1686,9 @@
       </c>
       <c r="E28" s="28"/>
       <c r="F28" s="22"/>
-    </row>
-    <row r="29" spans="2:6" s="6" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="G28" s="40"/>
+    </row>
+    <row r="29" spans="2:7" s="6" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="B29" s="11">
         <v>24</v>
       </c>
@@ -1608,8 +1698,9 @@
       </c>
       <c r="E29" s="28"/>
       <c r="F29" s="22"/>
-    </row>
-    <row r="30" spans="2:6" s="6" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="G29" s="40"/>
+    </row>
+    <row r="30" spans="2:7" s="6" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="B30" s="11">
         <v>25</v>
       </c>
@@ -1621,8 +1712,9 @@
       </c>
       <c r="E30" s="22"/>
       <c r="F30" s="22"/>
-    </row>
-    <row r="31" spans="2:6" s="6" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="G30" s="40"/>
+    </row>
+    <row r="31" spans="2:7" s="6" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="B31" s="11">
         <v>26</v>
       </c>
@@ -1636,8 +1728,9 @@
         <v>54</v>
       </c>
       <c r="F31" s="22"/>
-    </row>
-    <row r="32" spans="2:6" s="6" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="G31" s="40"/>
+    </row>
+    <row r="32" spans="2:7" s="6" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="B32" s="11">
         <v>27</v>
       </c>
@@ -1649,8 +1742,9 @@
         <v>54</v>
       </c>
       <c r="F32" s="22"/>
-    </row>
-    <row r="33" spans="2:6" s="6" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="G32" s="40"/>
+    </row>
+    <row r="33" spans="2:7" s="6" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="B33" s="11">
         <v>28</v>
       </c>
@@ -1662,8 +1756,9 @@
         <v>54</v>
       </c>
       <c r="F33" s="22"/>
-    </row>
-    <row r="34" spans="2:6" s="6" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="G33" s="40"/>
+    </row>
+    <row r="34" spans="2:7" s="6" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="B34" s="11">
         <v>29</v>
       </c>
@@ -1675,8 +1770,9 @@
       </c>
       <c r="E34" s="28"/>
       <c r="F34" s="22"/>
-    </row>
-    <row r="35" spans="2:6" s="6" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="G34" s="40"/>
+    </row>
+    <row r="35" spans="2:7" s="6" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="B35" s="11">
         <v>30</v>
       </c>
@@ -1686,8 +1782,9 @@
       </c>
       <c r="E35" s="28"/>
       <c r="F35" s="22"/>
-    </row>
-    <row r="36" spans="2:6" s="6" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="G35" s="40"/>
+    </row>
+    <row r="36" spans="2:7" s="6" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="B36" s="11">
         <v>31</v>
       </c>
@@ -1699,8 +1796,9 @@
       </c>
       <c r="E36" s="28"/>
       <c r="F36" s="22"/>
-    </row>
-    <row r="37" spans="2:6" s="6" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="G36" s="40"/>
+    </row>
+    <row r="37" spans="2:7" s="6" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="B37" s="11">
         <v>32</v>
       </c>
@@ -1712,9 +1810,10 @@
       </c>
       <c r="E37" s="28"/>
       <c r="F37" s="22"/>
-    </row>
-    <row r="38" spans="2:6" s="6" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B38" s="39"/>
+      <c r="G37" s="40"/>
+    </row>
+    <row r="38" spans="2:7" s="6" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="B38" s="37"/>
       <c r="C38" s="35" t="s">
         <v>73</v>
       </c>
@@ -1725,228 +1824,265 @@
         <v>10</v>
       </c>
       <c r="F38" s="36"/>
-    </row>
-    <row r="39" spans="2:6" s="6" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B39" s="39"/>
+      <c r="G38" s="40"/>
+    </row>
+    <row r="39" spans="2:7" s="6" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="B39" s="37"/>
       <c r="C39" s="35"/>
-      <c r="D39" s="35"/>
+      <c r="D39" s="35" t="s">
+        <v>75</v>
+      </c>
       <c r="E39" s="36"/>
       <c r="F39" s="36"/>
-    </row>
-    <row r="40" spans="2:6" s="6" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B40" s="11">
+      <c r="G39" s="40" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7" s="6" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="B40" s="37"/>
+      <c r="C40" s="35"/>
+      <c r="D40" s="35" t="s">
+        <v>76</v>
+      </c>
+      <c r="E40" s="36"/>
+      <c r="F40" s="36"/>
+      <c r="G40" s="40" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7" s="6" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="B41" s="11">
         <v>33</v>
       </c>
-      <c r="C40" s="29" t="s">
+      <c r="C41" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="D40" s="28" t="s">
+      <c r="D41" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="E40" s="28"/>
-      <c r="F40" s="22"/>
-    </row>
-    <row r="41" spans="2:6" s="6" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B41" s="25"/>
-      <c r="C41" s="19" t="s">
+      <c r="E41" s="28"/>
+      <c r="F41" s="22"/>
+      <c r="G41" s="40"/>
+    </row>
+    <row r="42" spans="2:7" s="6" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B42" s="25"/>
+      <c r="C42" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="D41" s="26"/>
-      <c r="E41" s="26"/>
-      <c r="F41" s="27"/>
-    </row>
-    <row r="42" spans="2:6" s="6" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B42" s="28">
+      <c r="D42" s="26"/>
+      <c r="E42" s="26"/>
+      <c r="F42" s="27"/>
+      <c r="G42" s="40"/>
+    </row>
+    <row r="43" spans="2:7" s="6" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B43" s="28">
         <v>34</v>
       </c>
-      <c r="C42" s="29" t="s">
+      <c r="C43" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="D42" s="31" t="s">
+      <c r="D43" s="31" t="s">
         <v>50</v>
-      </c>
-      <c r="E42" s="28"/>
-      <c r="F42" s="22"/>
-    </row>
-    <row r="43" spans="2:6" s="6" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B43" s="28">
-        <v>35</v>
-      </c>
-      <c r="C43" s="28"/>
-      <c r="D43" s="32" t="s">
-        <v>51</v>
       </c>
       <c r="E43" s="28"/>
       <c r="F43" s="22"/>
-    </row>
-    <row r="44" spans="2:6" s="6" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G43" s="40"/>
+    </row>
+    <row r="44" spans="2:7" s="6" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B44" s="28">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C44" s="28"/>
-      <c r="D44" s="33" t="s">
-        <v>52</v>
+      <c r="D44" s="32" t="s">
+        <v>51</v>
       </c>
       <c r="E44" s="28"/>
       <c r="F44" s="22"/>
-    </row>
-    <row r="45" spans="2:6" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="G44" s="40"/>
+    </row>
+    <row r="45" spans="2:7" s="6" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B45" s="28">
+        <v>36</v>
+      </c>
+      <c r="C45" s="28"/>
+      <c r="D45" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="E45" s="28"/>
+      <c r="F45" s="22"/>
+      <c r="G45" s="40"/>
+    </row>
+    <row r="46" spans="2:7" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="B46" s="28">
         <v>37</v>
       </c>
-      <c r="C45" s="29" t="s">
+      <c r="C46" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="D45" s="28" t="s">
+      <c r="D46" s="28" t="s">
         <v>56</v>
-      </c>
-      <c r="E45" s="22"/>
-      <c r="F45" s="22"/>
-    </row>
-    <row r="46" spans="2:6" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="B46" s="28">
-        <v>38</v>
-      </c>
-      <c r="C46" s="28"/>
-      <c r="D46" s="28" t="s">
-        <v>57</v>
       </c>
       <c r="E46" s="22"/>
       <c r="F46" s="22"/>
-    </row>
-    <row r="47" spans="2:6" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="G46" s="40"/>
+    </row>
+    <row r="47" spans="2:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B47" s="28">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C47" s="28"/>
       <c r="D47" s="28" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E47" s="22"/>
       <c r="F47" s="22"/>
-    </row>
-    <row r="48" spans="2:6" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="G47" s="40"/>
+    </row>
+    <row r="48" spans="2:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B48" s="28">
-        <v>40</v>
-      </c>
-      <c r="C48" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="D48" s="34" t="s">
-        <v>60</v>
+        <v>39</v>
+      </c>
+      <c r="C48" s="28"/>
+      <c r="D48" s="28" t="s">
+        <v>58</v>
       </c>
       <c r="E48" s="22"/>
       <c r="F48" s="22"/>
-    </row>
-    <row r="49" spans="2:6" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="G48" s="40"/>
+    </row>
+    <row r="49" spans="2:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B49" s="28">
-        <v>41</v>
-      </c>
-      <c r="C49" s="25"/>
+        <v>40</v>
+      </c>
+      <c r="C49" s="17" t="s">
+        <v>59</v>
+      </c>
       <c r="D49" s="34" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E49" s="22"/>
       <c r="F49" s="22"/>
-    </row>
-    <row r="50" spans="2:6" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="G49" s="40"/>
+    </row>
+    <row r="50" spans="2:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B50" s="28">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C50" s="25"/>
       <c r="D50" s="34" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E50" s="22"/>
       <c r="F50" s="22"/>
-    </row>
-    <row r="51" spans="2:6" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="G50" s="40"/>
+    </row>
+    <row r="51" spans="2:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B51" s="28">
-        <v>43</v>
-      </c>
-      <c r="C51" s="17" t="s">
-        <v>63</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="C51" s="25"/>
       <c r="D51" s="34" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E51" s="22"/>
       <c r="F51" s="22"/>
-    </row>
-    <row r="52" spans="2:6" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="G51" s="40"/>
+    </row>
+    <row r="52" spans="2:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B52" s="28">
-        <v>44</v>
-      </c>
-      <c r="C52" s="28"/>
+        <v>43</v>
+      </c>
+      <c r="C52" s="17" t="s">
+        <v>63</v>
+      </c>
       <c r="D52" s="34" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E52" s="22"/>
       <c r="F52" s="22"/>
-    </row>
-    <row r="53" spans="2:6" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="G52" s="40"/>
+    </row>
+    <row r="53" spans="2:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B53" s="28">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C53" s="28"/>
       <c r="D53" s="34" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E53" s="22"/>
       <c r="F53" s="22"/>
-    </row>
-    <row r="54" spans="2:6" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="G53" s="40"/>
+    </row>
+    <row r="54" spans="2:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B54" s="28">
-        <v>46</v>
-      </c>
-      <c r="C54" s="29" t="s">
-        <v>67</v>
-      </c>
-      <c r="D54" s="28"/>
+        <v>45</v>
+      </c>
+      <c r="C54" s="28"/>
+      <c r="D54" s="34" t="s">
+        <v>66</v>
+      </c>
       <c r="E54" s="22"/>
       <c r="F54" s="22"/>
-    </row>
-    <row r="55" spans="2:6" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="G54" s="40"/>
+    </row>
+    <row r="55" spans="2:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B55" s="28">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C55" s="29" t="s">
-        <v>68</v>
-      </c>
-      <c r="D55" s="28" t="s">
-        <v>69</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="D55" s="28"/>
       <c r="E55" s="22"/>
       <c r="F55" s="22"/>
-    </row>
-    <row r="56" spans="2:6" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="G55" s="40"/>
+    </row>
+    <row r="56" spans="2:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B56" s="28">
-        <v>48</v>
-      </c>
-      <c r="C56" s="23"/>
+        <v>47</v>
+      </c>
+      <c r="C56" s="29" t="s">
+        <v>68</v>
+      </c>
       <c r="D56" s="28" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E56" s="22"/>
       <c r="F56" s="22"/>
-    </row>
-    <row r="57" spans="2:6" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="G56" s="40"/>
+    </row>
+    <row r="57" spans="2:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B57" s="28">
-        <v>49</v>
-      </c>
-      <c r="C57" s="28"/>
+        <v>48</v>
+      </c>
+      <c r="C57" s="23"/>
       <c r="D57" s="28" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E57" s="22"/>
       <c r="F57" s="22"/>
-    </row>
-    <row r="58" spans="2:6" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="B58" s="30"/>
+      <c r="G57" s="40"/>
+    </row>
+    <row r="58" spans="2:7" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="B58" s="28">
+        <v>49</v>
+      </c>
       <c r="C58" s="28"/>
-      <c r="D58" s="28"/>
+      <c r="D58" s="28" t="s">
+        <v>71</v>
+      </c>
       <c r="E58" s="22"/>
       <c r="F58" s="22"/>
+      <c r="G58" s="40"/>
+    </row>
+    <row r="59" spans="2:7" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="B59" s="30"/>
+      <c r="C59" s="28"/>
+      <c r="D59" s="28"/>
+      <c r="E59" s="22"/>
+      <c r="F59" s="22"/>
+      <c r="G59" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/WIP/Documents/Function check list.xlsx
+++ b/WIP/Documents/Function check list.xlsx
@@ -15,14 +15,14 @@
     <sheet name="Function logs" sheetId="3" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Function logs'!$A$1:$E$78</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Function logs'!$A$1:$E$74</definedName>
   </definedNames>
   <calcPr calcId="152511" iterate="1" iterateCount="10000" iterateDelta="1.0000000000000001E-5"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="97">
   <si>
     <t>Function</t>
   </si>
@@ -126,9 +126,6 @@
     <t>Home</t>
   </si>
   <si>
-    <t>View top three Ỏganizations</t>
-  </si>
-  <si>
     <t>View top four Threads</t>
   </si>
   <si>
@@ -301,6 +298,21 @@
   </si>
   <si>
     <t>View donate's dashboard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Done </t>
+  </si>
+  <si>
+    <t>Pending</t>
+  </si>
+  <si>
+    <t>Inprogress</t>
+  </si>
+  <si>
+    <t>View top three Organizations</t>
+  </si>
+  <si>
+    <t>?</t>
   </si>
 </sst>
 </file>
@@ -339,7 +351,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -348,17 +360,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="medium">
@@ -379,16 +380,90 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
@@ -400,80 +475,10 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="medium">
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -483,46 +488,85 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -894,10 +938,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E78"/>
+  <dimension ref="A1:G74"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A61" zoomScale="145" zoomScaleNormal="100" zoomScaleSheetLayoutView="145" workbookViewId="0">
-      <selection activeCell="E79" sqref="E79"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="145" zoomScaleNormal="100" zoomScaleSheetLayoutView="145" workbookViewId="0">
+      <selection activeCell="D58" sqref="D58:D74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -910,898 +954,966 @@
     <col min="6" max="6" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="26" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="26"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-    </row>
-    <row r="3" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="27"/>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-    </row>
-    <row r="4" spans="1:5" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="13" t="s">
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="G1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="G2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="G3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="15" t="s">
+      <c r="E4" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="2">
+    <row r="5" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="6">
         <v>1</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="4"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="5">
+      <c r="D5" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="E5" s="10"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="7">
         <v>2</v>
       </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1" t="s">
+      <c r="B6" s="11"/>
+      <c r="C6" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="6"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="5">
+      <c r="D6" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="E6" s="12"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="7">
         <v>3</v>
       </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1" t="s">
+      <c r="B7" s="11"/>
+      <c r="C7" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="6"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="5">
+      <c r="D7" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="E7" s="12"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="7">
         <v>4</v>
       </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1" t="s">
+      <c r="B8" s="11"/>
+      <c r="C8" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="6"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="5">
+      <c r="D8" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="E8" s="12"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="7">
         <v>5</v>
       </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1" t="s">
+      <c r="B9" s="11"/>
+      <c r="C9" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="6"/>
-    </row>
-    <row r="10" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D9" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="E9" s="12"/>
+    </row>
+    <row r="10" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>6</v>
       </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="D10" s="8"/>
-      <c r="E10" s="9"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="2">
+      <c r="B10" s="13"/>
+      <c r="C10" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="E10" s="14"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="7">
         <v>7</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="4"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="5">
+      <c r="C11" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="E11" s="10"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="7">
         <v>8</v>
       </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D12" s="1"/>
-      <c r="E12" s="6"/>
-    </row>
-    <row r="13" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="11"/>
+      <c r="C12" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="E12" s="15">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>9</v>
       </c>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D13" s="8"/>
-      <c r="E13" s="9"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="2">
+      <c r="B13" s="13"/>
+      <c r="C13" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="E13" s="14"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="7">
         <v>10</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="E14" s="10"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="7">
+        <v>11</v>
+      </c>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="D15" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="E15" s="12"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="7">
+        <v>12</v>
+      </c>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="E16" s="12"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="7">
+        <v>13</v>
+      </c>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="D14" s="3"/>
-      <c r="E14" s="4"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="5">
-        <v>11</v>
-      </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D15" s="1"/>
-      <c r="E15" s="6"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="5">
-        <v>12</v>
-      </c>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D16" s="1"/>
-      <c r="E16" s="6"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="5">
-        <v>13</v>
-      </c>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1" t="s">
+      <c r="D17" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="E17" s="12"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="7">
+        <v>14</v>
+      </c>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="D17" s="1"/>
-      <c r="E17" s="6"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="5">
-        <v>14</v>
-      </c>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1" t="s">
+      <c r="D18" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="E18" s="15">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="7">
+        <v>15</v>
+      </c>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="D18" s="1"/>
-      <c r="E18" s="6"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="5">
-        <v>15</v>
-      </c>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1" t="s">
+      <c r="D19" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="E19" s="12"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="7">
+        <v>16</v>
+      </c>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="E20" s="12"/>
+    </row>
+    <row r="21" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="7">
+        <v>17</v>
+      </c>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="D19" s="1"/>
-      <c r="E19" s="6"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="5">
-        <v>16</v>
-      </c>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1" t="s">
+      <c r="D21" s="11"/>
+      <c r="E21" s="12"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="7">
+        <v>18</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="E22" s="10"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="7">
+        <v>19</v>
+      </c>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="D20" s="1"/>
-      <c r="E20" s="6"/>
-    </row>
-    <row r="21" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="5">
-        <v>17</v>
-      </c>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D21" s="1"/>
-      <c r="E21" s="6"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="2">
-        <v>18</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D22" s="3"/>
-      <c r="E22" s="4"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="5">
-        <v>19</v>
-      </c>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1" t="s">
+      <c r="D23" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="E23" s="12"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="7">
+        <v>20</v>
+      </c>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="D23" s="1"/>
-      <c r="E23" s="6"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="5">
-        <v>20</v>
-      </c>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1" t="s">
+      <c r="D24" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="E24" s="12"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="7">
+        <v>21</v>
+      </c>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="D24" s="1"/>
-      <c r="E24" s="6"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="5">
-        <v>21</v>
-      </c>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1" t="s">
+      <c r="D25" s="11"/>
+      <c r="E25" s="12"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="7">
+        <v>22</v>
+      </c>
+      <c r="B26" s="11"/>
+      <c r="C26" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="D25" s="1"/>
-      <c r="E25" s="6"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="5">
-        <v>22</v>
-      </c>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1" t="s">
+      <c r="D26" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="E26" s="12"/>
+    </row>
+    <row r="27" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="7">
+        <v>23</v>
+      </c>
+      <c r="B27" s="11"/>
+      <c r="C27" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="D26" s="1"/>
-      <c r="E26" s="6"/>
-    </row>
-    <row r="27" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="5">
-        <v>23</v>
-      </c>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1" t="s">
+      <c r="D27" s="11"/>
+      <c r="E27" s="15"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="7">
+        <v>24</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="D27" s="1"/>
-      <c r="E27" s="6"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="2">
-        <v>24</v>
-      </c>
-      <c r="B28" s="3" t="s">
+      <c r="D28" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="E28" s="10"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="7">
+        <v>25</v>
+      </c>
+      <c r="B29" s="11"/>
+      <c r="C29" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="E29" s="12"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="7">
         <v>26</v>
       </c>
-      <c r="C28" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D28" s="3"/>
-      <c r="E28" s="4"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="5">
-        <v>25</v>
-      </c>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1" t="s">
+      <c r="B30" s="11"/>
+      <c r="C30" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="D29" s="1"/>
-      <c r="E29" s="6"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="5">
-        <v>26</v>
-      </c>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1" t="s">
+      <c r="D30" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="E30" s="12"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="7">
+        <v>27</v>
+      </c>
+      <c r="B31" s="11"/>
+      <c r="C31" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="D30" s="1"/>
-      <c r="E30" s="6"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="5">
-        <v>27</v>
-      </c>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1" t="s">
+      <c r="D31" s="11"/>
+      <c r="E31" s="12"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" s="7">
+        <v>28</v>
+      </c>
+      <c r="B32" s="11"/>
+      <c r="C32" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="D31" s="1"/>
-      <c r="E31" s="6"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="5">
-        <v>28</v>
-      </c>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1" t="s">
+      <c r="D32" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="E32" s="12"/>
+    </row>
+    <row r="33" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="7">
+        <v>29</v>
+      </c>
+      <c r="B33" s="11"/>
+      <c r="C33" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="D32" s="1"/>
-      <c r="E32" s="6"/>
-    </row>
-    <row r="33" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="5">
-        <v>29</v>
-      </c>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1" t="s">
+      <c r="D33" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="E33" s="12"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" s="7">
+        <v>30</v>
+      </c>
+      <c r="B34" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="D33" s="1"/>
-      <c r="E33" s="6"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" s="2">
-        <v>30</v>
-      </c>
-      <c r="B34" s="3" t="s">
+      <c r="C34" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="C34" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="D34" s="3"/>
-      <c r="E34" s="4"/>
+      <c r="D34" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="E34" s="10"/>
     </row>
     <row r="35" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="7">
         <v>31</v>
       </c>
-      <c r="B35" s="8"/>
-      <c r="C35" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="D35" s="8"/>
-      <c r="E35" s="9"/>
+      <c r="B35" s="13"/>
+      <c r="C35" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="D35" s="13"/>
+      <c r="E35" s="14"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" s="2">
+      <c r="A36" s="7">
         <v>32</v>
       </c>
-      <c r="B36" s="3"/>
-      <c r="C36" s="11"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="4"/>
+      <c r="B36" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C36" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="E36" s="20">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" s="5">
+      <c r="A37" s="7">
         <v>33</v>
       </c>
-      <c r="B37" s="1"/>
-      <c r="C37" s="10"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="6"/>
+      <c r="B37" s="21"/>
+      <c r="C37" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="D37" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="E37" s="15">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" s="5">
+      <c r="A38" s="7">
         <v>34</v>
       </c>
-      <c r="B38" s="1"/>
-      <c r="C38" s="10"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="6"/>
+      <c r="B38" s="21"/>
+      <c r="C38" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="D38" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="E38" s="15">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="39" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="7">
         <v>35</v>
       </c>
-      <c r="B39" s="8"/>
-      <c r="C39" s="12"/>
-      <c r="D39" s="8"/>
-      <c r="E39" s="9"/>
+      <c r="B39" s="23"/>
+      <c r="C39" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="D39" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="E39" s="25">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40" s="2">
+      <c r="A40" s="7">
         <v>36</v>
       </c>
-      <c r="B40" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="C40" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="D40" s="3"/>
-      <c r="E40" s="4"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41" s="5">
+      <c r="B40" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C40" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="D40" s="9"/>
+      <c r="E40" s="10"/>
+    </row>
+    <row r="41" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="7">
         <v>37</v>
       </c>
-      <c r="B41" s="17"/>
-      <c r="C41" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="D41" s="1"/>
-      <c r="E41" s="6"/>
+      <c r="B41" s="13"/>
+      <c r="C41" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="D41" s="13"/>
+      <c r="E41" s="14"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42" s="5">
+      <c r="A42" s="7">
         <v>38</v>
       </c>
-      <c r="B42" s="17"/>
+      <c r="B42" s="9" t="s">
+        <v>62</v>
+      </c>
       <c r="C42" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="D42" s="1"/>
-      <c r="E42" s="6"/>
-    </row>
-    <row r="43" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="D42" s="9"/>
+      <c r="E42" s="10"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="7">
         <v>39</v>
       </c>
-      <c r="B43" s="20"/>
-      <c r="C43" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="D43" s="8"/>
-      <c r="E43" s="9"/>
+      <c r="B43" s="11"/>
+      <c r="C43" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="D43" s="11"/>
+      <c r="E43" s="12"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A44" s="2">
+      <c r="A44" s="7">
         <v>40</v>
       </c>
-      <c r="B44" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C44" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="D44" s="3"/>
-      <c r="E44" s="4"/>
+      <c r="B44" s="11"/>
+      <c r="C44" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="D44" s="11"/>
+      <c r="E44" s="12"/>
     </row>
     <row r="45" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" s="7">
         <v>41</v>
       </c>
-      <c r="B45" s="8"/>
-      <c r="C45" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="D45" s="8"/>
-      <c r="E45" s="9"/>
+      <c r="B45" s="13"/>
+      <c r="C45" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="D45" s="13"/>
+      <c r="E45" s="14"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A46" s="2">
+      <c r="A46" s="7">
         <v>42</v>
       </c>
-      <c r="B46" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C46" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D46" s="3"/>
-      <c r="E46" s="4"/>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A47" s="5">
+      <c r="B46" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C46" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="D46" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="E46" s="10" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="7">
         <v>43</v>
       </c>
-      <c r="B47" s="1"/>
-      <c r="C47" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D47" s="1"/>
-      <c r="E47" s="6"/>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A48" s="5">
+      <c r="B47" s="13"/>
+      <c r="C47" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D47" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="E47" s="14" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="7">
         <v>44</v>
       </c>
-      <c r="B48" s="1"/>
-      <c r="C48" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="D48" s="1"/>
-      <c r="E48" s="6"/>
+      <c r="B48" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C48" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="D48" s="11"/>
+      <c r="E48" s="12"/>
     </row>
     <row r="49" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A49" s="7">
         <v>45</v>
       </c>
-      <c r="B49" s="8"/>
-      <c r="C49" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="D49" s="8"/>
-      <c r="E49" s="9"/>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A50" s="2">
+      <c r="B49" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="C49" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="D49" s="27"/>
+      <c r="E49" s="29"/>
+    </row>
+    <row r="50" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="7">
         <v>46</v>
       </c>
-      <c r="B50" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C50" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="D50" s="3"/>
-      <c r="E50" s="4"/>
-    </row>
-    <row r="51" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="C50" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="D50" s="27"/>
+      <c r="E50" s="29"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" s="7">
         <v>47</v>
       </c>
-      <c r="B51" s="8"/>
-      <c r="C51" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D51" s="8"/>
-      <c r="E51" s="9"/>
-    </row>
-    <row r="52" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="5">
+      <c r="B51" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C51" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="D51" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="E51" s="10"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52" s="7">
         <v>48</v>
       </c>
-      <c r="B52" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C52" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="D52" s="1"/>
-      <c r="E52" s="6"/>
-    </row>
-    <row r="53" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="22">
+      <c r="B52" s="11"/>
+      <c r="C52" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="D52" s="11"/>
+      <c r="E52" s="12"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53" s="7">
         <v>49</v>
       </c>
-      <c r="B53" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="C53" s="24" t="s">
-        <v>71</v>
-      </c>
-      <c r="D53" s="23"/>
-      <c r="E53" s="25"/>
-    </row>
-    <row r="54" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="22">
+      <c r="B53" s="11"/>
+      <c r="C53" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="D53" s="11"/>
+      <c r="E53" s="12"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54" s="7">
         <v>50</v>
       </c>
-      <c r="B54" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="C54" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="D54" s="23"/>
-      <c r="E54" s="25"/>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A55" s="2">
+      <c r="B54" s="11"/>
+      <c r="C54" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="D54" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="E54" s="12"/>
+    </row>
+    <row r="55" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="7">
         <v>51</v>
       </c>
-      <c r="B55" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="C55" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="D55" s="3"/>
-      <c r="E55" s="4"/>
+      <c r="B55" s="13"/>
+      <c r="C55" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="D55" s="13"/>
+      <c r="E55" s="14"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A56" s="5">
+      <c r="A56" s="7">
         <v>52</v>
       </c>
-      <c r="B56" s="1"/>
-      <c r="C56" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="D56" s="1"/>
-      <c r="E56" s="6"/>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A57" s="5">
+      <c r="B56" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="C56" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="D56" s="9"/>
+      <c r="E56" s="10"/>
+    </row>
+    <row r="57" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="7">
         <v>53</v>
       </c>
-      <c r="B57" s="1"/>
-      <c r="C57" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="D57" s="1"/>
-      <c r="E57" s="6"/>
+      <c r="B57" s="13"/>
+      <c r="C57" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="D57" s="13"/>
+      <c r="E57" s="14"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A58" s="5">
+      <c r="A58" s="7">
         <v>54</v>
       </c>
-      <c r="B58" s="1"/>
-      <c r="C58" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="D58" s="1"/>
-      <c r="E58" s="6"/>
-    </row>
-    <row r="59" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B58" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="C58" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D58" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="E58" s="15">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" s="7">
         <v>55</v>
       </c>
-      <c r="B59" s="8"/>
-      <c r="C59" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="D59" s="8"/>
-      <c r="E59" s="9"/>
+      <c r="B59" s="11"/>
+      <c r="C59" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D59" s="11"/>
+      <c r="E59" s="12"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A60" s="2">
+      <c r="A60" s="7">
         <v>56</v>
       </c>
-      <c r="B60" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="C60" s="19" t="s">
-        <v>80</v>
-      </c>
-      <c r="D60" s="3"/>
-      <c r="E60" s="4"/>
-    </row>
-    <row r="61" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B60" s="11"/>
+      <c r="C60" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D60" s="11"/>
+      <c r="E60" s="12"/>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" s="7">
         <v>57</v>
       </c>
-      <c r="B61" s="8"/>
-      <c r="C61" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="D61" s="8"/>
-      <c r="E61" s="9"/>
+      <c r="B61" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="C61" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="D61" s="11"/>
+      <c r="E61" s="12"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A62" s="5">
+      <c r="A62" s="7">
         <v>58</v>
       </c>
-      <c r="B62" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D62" s="1"/>
-      <c r="E62" s="6"/>
+      <c r="B62" s="11"/>
+      <c r="C62" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D62" s="11"/>
+      <c r="E62" s="12"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A63" s="5">
+      <c r="A63" s="7">
         <v>59</v>
       </c>
-      <c r="B63" s="1"/>
-      <c r="C63" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D63" s="1"/>
-      <c r="E63" s="6"/>
+      <c r="B63" s="11"/>
+      <c r="C63" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D63" s="11"/>
+      <c r="E63" s="12"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A64" s="5">
+      <c r="A64" s="7">
         <v>60</v>
       </c>
-      <c r="B64" s="1"/>
-      <c r="C64" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D64" s="1"/>
-      <c r="E64" s="6"/>
+      <c r="B64" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C64" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="D64" s="11"/>
+      <c r="E64" s="12"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A65" s="5">
+      <c r="A65" s="7">
         <v>61</v>
       </c>
-      <c r="B65" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="D65" s="1"/>
-      <c r="E65" s="6"/>
+      <c r="B65" s="11"/>
+      <c r="C65" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D65" s="11"/>
+      <c r="E65" s="12"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A66" s="5">
+      <c r="A66" s="7">
         <v>62</v>
       </c>
-      <c r="B66" s="1"/>
-      <c r="C66" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D66" s="1"/>
-      <c r="E66" s="6"/>
+      <c r="B66" s="11"/>
+      <c r="C66" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D66" s="11"/>
+      <c r="E66" s="12"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A67" s="5">
+      <c r="A67" s="7">
         <v>63</v>
       </c>
-      <c r="B67" s="1"/>
-      <c r="C67" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D67" s="1"/>
-      <c r="E67" s="6"/>
+      <c r="B67" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C67" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="D67" s="11"/>
+      <c r="E67" s="12"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A68" s="5">
+      <c r="A68" s="7">
         <v>64</v>
       </c>
-      <c r="B68" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D68" s="1"/>
-      <c r="E68" s="6"/>
+      <c r="B68" s="11"/>
+      <c r="C68" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D68" s="11"/>
+      <c r="E68" s="12"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A69" s="5">
+      <c r="A69" s="7">
         <v>65</v>
       </c>
-      <c r="B69" s="1"/>
-      <c r="C69" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D69" s="1"/>
-      <c r="E69" s="6"/>
+      <c r="B69" s="11"/>
+      <c r="C69" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D69" s="11"/>
+      <c r="E69" s="12"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A70" s="5">
+      <c r="A70" s="7">
         <v>66</v>
       </c>
-      <c r="B70" s="1"/>
-      <c r="C70" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D70" s="1"/>
-      <c r="E70" s="6"/>
+      <c r="B70" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="C70" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="D70" s="11"/>
+      <c r="E70" s="12"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A71" s="5">
+      <c r="A71" s="7">
         <v>67</v>
       </c>
-      <c r="B71" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="D71" s="1"/>
-      <c r="E71" s="6"/>
+      <c r="B71" s="11"/>
+      <c r="C71" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D71" s="11"/>
+      <c r="E71" s="12"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A72" s="5">
+      <c r="A72" s="7">
         <v>68</v>
       </c>
-      <c r="B72" s="1"/>
-      <c r="C72" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D72" s="1"/>
-      <c r="E72" s="6"/>
+      <c r="B72" s="11"/>
+      <c r="C72" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D72" s="11"/>
+      <c r="E72" s="11"/>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A73" s="5">
+      <c r="A73" s="7">
         <v>69</v>
       </c>
-      <c r="B73" s="1"/>
-      <c r="C73" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D73" s="1"/>
-      <c r="E73" s="6"/>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A74" s="5">
+      <c r="B73" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="C73" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="D73" s="11"/>
+      <c r="E73" s="11"/>
+    </row>
+    <row r="74" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="8">
         <v>70</v>
       </c>
-      <c r="B74" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D74" s="1"/>
-      <c r="E74" s="6"/>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A75" s="5">
-        <v>71</v>
-      </c>
-      <c r="B75" s="1"/>
-      <c r="C75" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D75" s="1"/>
-      <c r="E75" s="6"/>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A76" s="5">
-        <v>72</v>
-      </c>
-      <c r="B76" s="1"/>
-      <c r="C76" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D76" s="1"/>
-      <c r="E76" s="1"/>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A77" s="5">
-        <v>73</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C77" s="1" t="s">
+      <c r="B74" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="C74" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="D77" s="1"/>
-      <c r="E77" s="1"/>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A78" s="5">
-        <v>74</v>
-      </c>
-      <c r="B78" t="s">
-        <v>23</v>
-      </c>
-      <c r="C78" s="10" t="s">
-        <v>92</v>
-      </c>
+      <c r="D74" s="30"/>
+      <c r="E74" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:E3"/>
   </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D74">
+      <formula1>$G$1:$G$3</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="69" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/WIP/Documents/Function check list.xlsx
+++ b/WIP/Documents/Function check list.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="96">
   <si>
     <t>Function</t>
   </si>
@@ -932,8 +932,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G74"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A55" zoomScale="145" zoomScaleNormal="100" zoomScaleSheetLayoutView="145" workbookViewId="0">
-      <selection activeCell="C63" sqref="C63"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A34" zoomScale="145" zoomScaleNormal="100" zoomScaleSheetLayoutView="145" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1168,7 +1168,7 @@
         <v>40</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E17" s="10"/>
     </row>
@@ -1351,7 +1351,9 @@
       <c r="C31" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="D31" s="9"/>
+      <c r="D31" s="9" t="s">
+        <v>90</v>
+      </c>
       <c r="E31" s="10"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
@@ -1549,7 +1551,7 @@
         <v>65</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E46" s="18">
         <v>0.75</v>

--- a/WIP/Documents/Function check list.xlsx
+++ b/WIP/Documents/Function check list.xlsx
@@ -932,8 +932,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G74"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A34" zoomScale="145" zoomScaleNormal="100" zoomScaleSheetLayoutView="145" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A19" zoomScale="145" zoomScaleNormal="100" zoomScaleSheetLayoutView="145" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1419,11 +1419,9 @@
         <v>16</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="E36" s="18">
-        <v>0.75</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="E36" s="18"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="5">
@@ -1434,11 +1432,9 @@
         <v>40</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="E37" s="13">
-        <v>0.75</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="E37" s="13"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="5">
@@ -1449,11 +1445,9 @@
         <v>49</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="E38" s="13">
-        <v>0.75</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="E38" s="13"/>
     </row>
     <row r="39" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="5">
@@ -1464,11 +1458,9 @@
         <v>55</v>
       </c>
       <c r="D39" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="E39" s="23">
-        <v>0.75</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="E39" s="23"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="5">
@@ -1553,9 +1545,7 @@
       <c r="D46" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="E46" s="18">
-        <v>0.75</v>
-      </c>
+      <c r="E46" s="18"/>
     </row>
     <row r="47" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A47" s="5">
